--- a/RESULTS/2018/C SET 4 [1.7..2.4] All/Cov Fit .xlsx
+++ b/RESULTS/2018/C SET 4 [1.7..2.4] All/Cov Fit .xlsx
@@ -385,13 +385,13 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C1" s="1" t="n">
         <v>258</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>590</v>
+        <v>322</v>
       </c>
       <c r="E1" s="1" t="n">
         <v>129</v>
@@ -400,10 +400,10 @@
         <v>92</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>572</v>
+        <v>538</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="I1" s="1" t="n">
         <v>350</v>
@@ -424,7 +424,7 @@
         <v>551</v>
       </c>
       <c r="O1" s="1" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P1" s="1" t="n">
         <v>191</v>
@@ -432,52 +432,52 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6183332845201206</v>
+        <v>0.7738562932466313</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4220648576149106</v>
+        <v>0.6657268705824215</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5780301118645911</v>
+        <v>0.7128756221190098</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5744865955456355</v>
+        <v>0.7695569925453506</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5125911847922007</v>
+        <v>0.6336516323666853</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5711559111886501</v>
+        <v>0.6954496146798612</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9246116314327368</v>
+        <v>0.7012463036818981</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4857458082540552</v>
+        <v>0.5478691390473823</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2545079056763221</v>
+        <v>0.7714127471515542</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5481352416429778</v>
+        <v>0.7540698289258477</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8354493746557471</v>
+        <v>0.6628297740505298</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1799221315343051</v>
+        <v>0.7662491821543597</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4787659185966061</v>
+        <v>0.6145563809349143</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5468487069821842</v>
+        <v>0.7398671652147174</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -485,13 +485,13 @@
         <v>258</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6183332845201206</v>
+        <v>0.7738562932466313</v>
       </c>
       <c r="C3" t="n">
         <v>0.9999999999999994</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6573936964469328</v>
+        <v>0.8690027143415938</v>
       </c>
       <c r="E3" t="n">
         <v>0.9486773106914687</v>
@@ -500,10 +500,10 @@
         <v>0.9047616591403688</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7933118503294516</v>
+        <v>0.8439424424788876</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9006319408714086</v>
+        <v>0.9247055135707499</v>
       </c>
       <c r="I3" t="n">
         <v>0.7500709017912802</v>
@@ -524,7 +524,7 @@
         <v>0.6980239502816274</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8098813005080697</v>
+        <v>0.8166700297352208</v>
       </c>
       <c r="P3" t="n">
         <v>0.8102198976868396</v>
@@ -532,52 +532,52 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="n">
-        <v>590</v>
+        <v>322</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4220648576149106</v>
+        <v>0.6657268705824215</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6573936964469328</v>
+        <v>0.8690027143415938</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5105642142105816</v>
+        <v>0.8110367103345045</v>
       </c>
       <c r="F4" t="n">
-        <v>0.70700088884401</v>
+        <v>0.8222824929443032</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8539411970592613</v>
+        <v>0.7741966999494027</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4382010555278126</v>
+        <v>0.795478893705823</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6106528240946474</v>
+        <v>0.7247841154503877</v>
       </c>
       <c r="J4" t="n">
-        <v>0.860557842199267</v>
+        <v>0.7036901550260981</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7620858714840306</v>
+        <v>0.5795200576943541</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7397052478256447</v>
+        <v>0.7843852955311355</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6910003078081974</v>
+        <v>0.7505106343987152</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6146666364863749</v>
+        <v>0.5289541594508699</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7346889735659486</v>
+        <v>0.7365706067027462</v>
       </c>
       <c r="P4" t="n">
-        <v>0.64738321110266</v>
+        <v>0.7754801052875585</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -585,13 +585,13 @@
         <v>129</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5780301118645911</v>
+        <v>0.7128756221190098</v>
       </c>
       <c r="C5" t="n">
         <v>0.9486773106914687</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5105642142105816</v>
+        <v>0.8110367103345045</v>
       </c>
       <c r="E5" t="n">
         <v>0.9999999999999998</v>
@@ -600,10 +600,10 @@
         <v>0.7716148863763835</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6877751376883795</v>
+        <v>0.7386123990454009</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9810563542868925</v>
+        <v>0.9942765301345794</v>
       </c>
       <c r="I5" t="n">
         <v>0.6871638484149084</v>
@@ -624,7 +624,7 @@
         <v>0.6103021704371677</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7446442020890892</v>
+        <v>0.7269307686496642</v>
       </c>
       <c r="P5" t="n">
         <v>0.6801311979814224</v>
@@ -635,13 +635,13 @@
         <v>92</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5744865955456355</v>
+        <v>0.7695569925453506</v>
       </c>
       <c r="C6" t="n">
         <v>0.9047616591403688</v>
       </c>
       <c r="D6" t="n">
-        <v>0.70700088884401</v>
+        <v>0.8222824929443032</v>
       </c>
       <c r="E6" t="n">
         <v>0.7716148863763835</v>
@@ -650,10 +650,10 @@
         <v>0.9999999999999994</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7320176099541926</v>
+        <v>0.7802260885985327</v>
       </c>
       <c r="H6" t="n">
-        <v>0.704723464979645</v>
+        <v>0.733604023403395</v>
       </c>
       <c r="I6" t="n">
         <v>0.7082111984193568</v>
@@ -674,7 +674,7 @@
         <v>0.7354415621775825</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8018206291094664</v>
+        <v>0.8288259286541458</v>
       </c>
       <c r="P6" t="n">
         <v>0.9459008124467415</v>
@@ -682,102 +682,102 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="n">
-        <v>572</v>
+        <v>538</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5125911847922007</v>
+        <v>0.6336516323666853</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7933118503294516</v>
+        <v>0.8439424424788876</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8539411970592613</v>
+        <v>0.7741966999494027</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6877751376883795</v>
+        <v>0.7386123990454009</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7320176099541926</v>
+        <v>0.7802260885985327</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6251096818118221</v>
+        <v>0.7032930164040641</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6553066980453612</v>
+        <v>0.6805558520919481</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9921569624168015</v>
+        <v>0.963444064496508</v>
       </c>
       <c r="K7" t="n">
-        <v>0.68002856893812</v>
+        <v>0.7004269056579024</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7628783967648233</v>
+        <v>0.8151648963930275</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7044046949829926</v>
+        <v>0.7299046161915757</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5730660287601858</v>
+        <v>0.612539044027667</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6620156332519506</v>
+        <v>0.7318031193751573</v>
       </c>
       <c r="P7" t="n">
-        <v>0.6530554672627066</v>
+        <v>0.6833369339928325</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="n">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5711559111886501</v>
+        <v>0.6954496146798612</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9006319408714086</v>
+        <v>0.9247055135707499</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4382010555278126</v>
+        <v>0.795478893705823</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9810563542868925</v>
+        <v>0.9942765301345794</v>
       </c>
       <c r="F8" t="n">
-        <v>0.704723464979645</v>
+        <v>0.733604023403395</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6251096818118221</v>
+        <v>0.7032930164040641</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6545198651901757</v>
+        <v>0.6688958686855196</v>
       </c>
       <c r="J8" t="n">
-        <v>0.57447378482542</v>
+        <v>0.6024195655615903</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5327229903991477</v>
+        <v>0.5686798074058375</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6502394461523601</v>
+        <v>0.6883194304486248</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6660962077284839</v>
+        <v>0.686221675154935</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5393182789890826</v>
+        <v>0.571797320424828</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6642015802063647</v>
+        <v>0.6854430774273479</v>
       </c>
       <c r="P8" t="n">
-        <v>0.6458957131716604</v>
+        <v>0.6596876742954332</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -785,13 +785,13 @@
         <v>350</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9246116314327368</v>
+        <v>0.7012463036818981</v>
       </c>
       <c r="C9" t="n">
         <v>0.7500709017912802</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6106528240946474</v>
+        <v>0.7247841154503877</v>
       </c>
       <c r="E9" t="n">
         <v>0.6871638484149084</v>
@@ -800,10 +800,10 @@
         <v>0.7082111984193568</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6553066980453612</v>
+        <v>0.6805558520919481</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6545198651901757</v>
+        <v>0.6688958686855196</v>
       </c>
       <c r="I9" t="n">
         <v>0.9999999999999998</v>
@@ -824,7 +824,7 @@
         <v>0.278602668604426</v>
       </c>
       <c r="O9" t="n">
-        <v>0.699649587086442</v>
+        <v>0.8006069481512419</v>
       </c>
       <c r="P9" t="n">
         <v>0.6327996701550141</v>
@@ -835,13 +835,13 @@
         <v>614</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4857458082540552</v>
+        <v>0.5478691390473823</v>
       </c>
       <c r="C10" t="n">
         <v>0.7393721793812503</v>
       </c>
       <c r="D10" t="n">
-        <v>0.860557842199267</v>
+        <v>0.7036901550260981</v>
       </c>
       <c r="E10" t="n">
         <v>0.6338731380465497</v>
@@ -850,10 +850,10 @@
         <v>0.6839855496386522</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9921569624168015</v>
+        <v>0.963444064496508</v>
       </c>
       <c r="H10" t="n">
-        <v>0.57447378482542</v>
+        <v>0.6024195655615903</v>
       </c>
       <c r="I10" t="n">
         <v>0.6219935917265401</v>
@@ -874,7 +874,7 @@
         <v>0.5356824958634626</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6216042792021772</v>
+        <v>0.6524779850917179</v>
       </c>
       <c r="P10" t="n">
         <v>0.6216540964586716</v>
@@ -885,13 +885,13 @@
         <v>587</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2545079056763221</v>
+        <v>0.7714127471515542</v>
       </c>
       <c r="C11" t="n">
         <v>0.7227248847714312</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7620858714840306</v>
+        <v>0.5795200576943541</v>
       </c>
       <c r="E11" t="n">
         <v>0.6120731507103283</v>
@@ -900,10 +900,10 @@
         <v>0.7705738575443331</v>
       </c>
       <c r="G11" t="n">
-        <v>0.68002856893812</v>
+        <v>0.7004269056579024</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5327229903991477</v>
+        <v>0.5686798074058375</v>
       </c>
       <c r="I11" t="n">
         <v>0.3826094933232158</v>
@@ -924,7 +924,7 @@
         <v>0.9742268495403436</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6586241230394202</v>
+        <v>0.6070721317401832</v>
       </c>
       <c r="P11" t="n">
         <v>0.7053781568060278</v>
@@ -935,13 +935,13 @@
         <v>246</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5481352416429778</v>
+        <v>0.7540698289258477</v>
       </c>
       <c r="C12" t="n">
         <v>0.8725443696087293</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7397052478256447</v>
+        <v>0.7843852955311355</v>
       </c>
       <c r="E12" t="n">
         <v>0.7380782479550602</v>
@@ -950,10 +950,10 @@
         <v>0.9709244261744502</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7628783967648233</v>
+        <v>0.8151648963930275</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6502394461523601</v>
+        <v>0.6883194304486248</v>
       </c>
       <c r="I12" t="n">
         <v>0.6949814241031506</v>
@@ -974,7 +974,7 @@
         <v>0.7531873427607793</v>
       </c>
       <c r="O12" t="n">
-        <v>0.8003017121427343</v>
+        <v>0.8316071922645026</v>
       </c>
       <c r="P12" t="n">
         <v>0.8738756116389224</v>
@@ -985,13 +985,13 @@
         <v>302</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8354493746557471</v>
+        <v>0.6628297740505298</v>
       </c>
       <c r="C13" t="n">
         <v>0.7856484331585899</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6910003078081974</v>
+        <v>0.7505106343987152</v>
       </c>
       <c r="E13" t="n">
         <v>0.7112486030770224</v>
@@ -1000,10 +1000,10 @@
         <v>0.7476866362087727</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7044046949829926</v>
+        <v>0.7299046161915757</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6660962077284839</v>
+        <v>0.686221675154935</v>
       </c>
       <c r="I13" t="n">
         <v>0.9794768102918541</v>
@@ -1024,7 +1024,7 @@
         <v>0.3323964340116801</v>
       </c>
       <c r="O13" t="n">
-        <v>0.7950114164819653</v>
+        <v>0.8826147326964343</v>
       </c>
       <c r="P13" t="n">
         <v>0.6507603765585297</v>
@@ -1035,13 +1035,13 @@
         <v>551</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1799221315343051</v>
+        <v>0.7662491821543597</v>
       </c>
       <c r="C14" t="n">
         <v>0.6980239502816274</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6146666364863749</v>
+        <v>0.5289541594508699</v>
       </c>
       <c r="E14" t="n">
         <v>0.6103021704371677</v>
@@ -1050,10 +1050,10 @@
         <v>0.7354415621775825</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5730660287601858</v>
+        <v>0.612539044027667</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5393182789890826</v>
+        <v>0.571797320424828</v>
       </c>
       <c r="I14" t="n">
         <v>0.278602668604426</v>
@@ -1074,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.584530907268017</v>
+        <v>0.5207694411529337</v>
       </c>
       <c r="P14" t="n">
         <v>0.6701830999225692</v>
@@ -1082,52 +1082,52 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4787659185966061</v>
+        <v>0.6145563809349143</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8098813005080697</v>
+        <v>0.8166700297352208</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7346889735659486</v>
+        <v>0.7365706067027462</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7446442020890892</v>
+        <v>0.7269307686496642</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8018206291094664</v>
+        <v>0.8288259286541458</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6620156332519506</v>
+        <v>0.7318031193751573</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6642015802063647</v>
+        <v>0.6854430774273479</v>
       </c>
       <c r="I15" t="n">
-        <v>0.699649587086442</v>
+        <v>0.8006069481512419</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6216042792021772</v>
+        <v>0.6524779850917179</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6586241230394202</v>
+        <v>0.6070721317401832</v>
       </c>
       <c r="L15" t="n">
-        <v>0.8003017121427343</v>
+        <v>0.8316071922645026</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7950114164819653</v>
+        <v>0.8826147326964343</v>
       </c>
       <c r="N15" t="n">
-        <v>0.584530907268017</v>
+        <v>0.5207694411529337</v>
       </c>
       <c r="O15" t="n">
         <v>0.9999999999999994</v>
       </c>
       <c r="P15" t="n">
-        <v>0.6635923785213421</v>
+        <v>0.6946544258746722</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1135,13 +1135,13 @@
         <v>191</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5468487069821842</v>
+        <v>0.7398671652147174</v>
       </c>
       <c r="C16" t="n">
         <v>0.8102198976868396</v>
       </c>
       <c r="D16" t="n">
-        <v>0.64738321110266</v>
+        <v>0.7754801052875585</v>
       </c>
       <c r="E16" t="n">
         <v>0.6801311979814224</v>
@@ -1150,10 +1150,10 @@
         <v>0.9459008124467415</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6530554672627066</v>
+        <v>0.6833369339928325</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6458957131716604</v>
+        <v>0.6596876742954332</v>
       </c>
       <c r="I16" t="n">
         <v>0.6327996701550141</v>
@@ -1174,7 +1174,7 @@
         <v>0.6701830999225692</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6635923785213421</v>
+        <v>0.6946544258746722</v>
       </c>
       <c r="P16" t="n">
         <v>0.9999999999999994</v>
@@ -1201,19 +1201,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="n">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="C1" s="1" t="n">
         <v>258</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="E1" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="n">
         <v>246</v>
@@ -1221,25 +1221,25 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="n">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.916403121178109</v>
+        <v>0.8764935495710586</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9301682065837532</v>
+        <v>0.8232329810362787</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8638037873778593</v>
+        <v>0.8265696885782285</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9254137994922531</v>
+        <v>0.869902288820355</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9168111477558454</v>
+        <v>0.8678061313074397</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1247,19 +1247,19 @@
         <v>258</v>
       </c>
       <c r="B3" t="n">
-        <v>0.916403121178109</v>
+        <v>0.8764935495710586</v>
       </c>
       <c r="C3" t="n">
         <v>0.9999999999999994</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9277818379731191</v>
+        <v>0.840189625866584</v>
       </c>
       <c r="E3" t="n">
         <v>0.967357882329129</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9248042673599324</v>
+        <v>0.9047616591403688</v>
       </c>
       <c r="G3" t="n">
         <v>0.8725443696087293</v>
@@ -1267,25 +1267,25 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="n">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9301682065837532</v>
+        <v>0.8232329810362787</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9277818379731191</v>
+        <v>0.840189625866584</v>
       </c>
       <c r="D4" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8797094879375799</v>
+        <v>0.735956388214203</v>
       </c>
       <c r="F4" t="n">
-        <v>0.961005046185942</v>
+        <v>0.9708157046820114</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9500096378568911</v>
+        <v>0.9096768924636792</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1293,19 +1293,19 @@
         <v>100</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8638037873778593</v>
+        <v>0.8265696885782285</v>
       </c>
       <c r="C5" t="n">
         <v>0.967357882329129</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8797094879375799</v>
+        <v>0.735956388214203</v>
       </c>
       <c r="E5" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8525247751716508</v>
+        <v>0.8163764213700065</v>
       </c>
       <c r="G5" t="n">
         <v>0.7972459851475013</v>
@@ -1313,25 +1313,25 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="n">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9254137994922531</v>
+        <v>0.869902288820355</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9248042673599324</v>
+        <v>0.9047616591403688</v>
       </c>
       <c r="D6" t="n">
-        <v>0.961005046185942</v>
+        <v>0.9708157046820114</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8525247751716508</v>
+        <v>0.8163764213700065</v>
       </c>
       <c r="F6" t="n">
         <v>0.9999999999999994</v>
       </c>
       <c r="G6" t="n">
-        <v>0.979644593312638</v>
+        <v>0.9709244261744502</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1339,19 +1339,19 @@
         <v>246</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9168111477558454</v>
+        <v>0.8678061313074397</v>
       </c>
       <c r="C7" t="n">
         <v>0.8725443696087293</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9500096378568911</v>
+        <v>0.9096768924636792</v>
       </c>
       <c r="E7" t="n">
         <v>0.7972459851475013</v>
       </c>
       <c r="F7" t="n">
-        <v>0.979644593312638</v>
+        <v>0.9709244261744502</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -1381,16 +1381,16 @@
         <v>246</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>62</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>487</v>
+        <v>184</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1401,93 +1401,93 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9223442139037745</v>
+        <v>0.8725443696087293</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9500096378568911</v>
+        <v>0.9462414986387815</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9421631438859992</v>
+        <v>0.87981374822176</v>
       </c>
       <c r="F2" t="n">
-        <v>0.979644593312638</v>
+        <v>0.9709244261744502</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="n">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9223442139037745</v>
+        <v>0.8725443696087293</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9797728854783392</v>
+        <v>0.9349162237741355</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9286090118004519</v>
+        <v>0.9519278488371449</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9569316338797252</v>
+        <v>0.9047616591403688</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="n">
-        <v>62</v>
+        <v>266</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9500096378568911</v>
+        <v>0.9462414986387815</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9797728854783392</v>
+        <v>0.9349162237741355</v>
       </c>
       <c r="D4" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9706436511224981</v>
+        <v>0.8917567391971286</v>
       </c>
       <c r="F4" t="n">
-        <v>0.961005046185942</v>
+        <v>0.9261630602323218</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="n">
-        <v>487</v>
+        <v>184</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9421631438859992</v>
+        <v>0.87981374822176</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9286090118004519</v>
+        <v>0.9519278488371449</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9706436511224981</v>
+        <v>0.8917567391971286</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9279921658013964</v>
+        <v>0.9316815300131052</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="n">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="B6" t="n">
-        <v>0.979644593312638</v>
+        <v>0.9709244261744502</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9569316338797252</v>
+        <v>0.9047616591403688</v>
       </c>
       <c r="D6" t="n">
-        <v>0.961005046185942</v>
+        <v>0.9261630602323218</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9279921658013964</v>
+        <v>0.9316815300131052</v>
       </c>
       <c r="F6" t="n">
         <v>0.9999999999999994</v>
@@ -1517,13 +1517,13 @@
         <v>246</v>
       </c>
       <c r="C1" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="D1" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="D1" s="1" t="n">
-        <v>62</v>
-      </c>
       <c r="E1" s="1" t="n">
-        <v>238</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1534,64 +1534,64 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
+        <v>0.8725443696087292</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.9709244261744501</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.9500096378568915</v>
-      </c>
       <c r="E2" t="n">
-        <v>0.9520169278490491</v>
+        <v>0.8798137482217594</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="n">
-        <v>92</v>
+        <v>258</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9709244261744501</v>
+        <v>0.8725443696087292</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="D3" t="n">
-        <v>0.918233803991781</v>
+        <v>0.9047616591403694</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9206737276243228</v>
+        <v>0.9519278488371449</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="n">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9500096378568915</v>
+        <v>0.9709244261744501</v>
       </c>
       <c r="C4" t="n">
-        <v>0.918233803991781</v>
+        <v>0.9047616591403694</v>
       </c>
       <c r="D4" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9938511669651345</v>
+        <v>0.9316815300131054</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="n">
-        <v>238</v>
+        <v>184</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9520169278490491</v>
+        <v>0.8798137482217594</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9206737276243228</v>
+        <v>0.9519278488371449</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9938511669651345</v>
+        <v>0.9316815300131054</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1618,10 +1618,10 @@
         <v>68</v>
       </c>
       <c r="C1" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="D1" s="1" t="n">
         <v>92</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1632,21 +1632,21 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
+        <v>0.8245782352078573</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.9136631688972233</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.8245782352078573</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="n">
-        <v>92</v>
+        <v>277</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9136631688972233</v>
+        <v>0.8245782352078573</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9999999999999994</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="D3" t="n">
         <v>0.9368853620202923</v>
@@ -1654,16 +1654,16 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="n">
-        <v>277</v>
+        <v>92</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8245782352078573</v>
+        <v>0.9136631688972233</v>
       </c>
       <c r="C4" t="n">
         <v>0.9368853620202923</v>
       </c>
       <c r="D4" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
     </row>
   </sheetData>
@@ -1687,32 +1687,32 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="n">
-        <v>318</v>
+        <v>119</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>152</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="n">
-        <v>318</v>
+        <v>119</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8520565640418369</v>
+        <v>0.9292992033867583</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="n">
-        <v>152</v>
+        <v>277</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8520565640418369</v>
+        <v>0.9292992033867583</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1872,13 +1872,13 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" s="1" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C1" s="1" t="n">
         <v>258</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>590</v>
+        <v>191</v>
       </c>
       <c r="E1" s="1" t="n">
         <v>129</v>
@@ -1887,16 +1887,16 @@
         <v>92</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>572</v>
+        <v>632</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>205</v>
+        <v>392</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>408</v>
+        <v>350</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>614</v>
+        <v>631</v>
       </c>
       <c r="K1" s="1" t="n">
         <v>587</v>
@@ -1911,54 +1911,54 @@
         <v>551</v>
       </c>
       <c r="O1" s="1" t="n">
-        <v>119</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6183332845201206</v>
+        <v>0.7738562932466313</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4220648576149107</v>
+        <v>0.7398671652147174</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5780301118645911</v>
+        <v>0.7128756221190098</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5744865955456355</v>
+        <v>0.7695569925453506</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5125911847922007</v>
+        <v>0.7656418414456131</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5711559111886501</v>
+        <v>0.7365271854039732</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9742014707271981</v>
+        <v>0.7012463036818981</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4857458082540552</v>
+        <v>0.7073039279239396</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2545079056763221</v>
+        <v>0.7714127471515542</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5481352416429778</v>
+        <v>0.7540698289258477</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8354493746557471</v>
+        <v>0.6628297740505298</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1799221315343051</v>
+        <v>0.7662491821543597</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5663556525929653</v>
+        <v>0.6145563809349143</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1966,13 +1966,13 @@
         <v>258</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6183332845201206</v>
+        <v>0.7738562932466313</v>
       </c>
       <c r="C3" t="n">
         <v>0.9999999999999994</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6573936964469328</v>
+        <v>0.8102198976868396</v>
       </c>
       <c r="E3" t="n">
         <v>0.9486773106914687</v>
@@ -1981,16 +1981,16 @@
         <v>0.9047616591403688</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7933118503294516</v>
+        <v>0.694151730842631</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9006319408714086</v>
+        <v>0.9177643316472515</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6969960692620772</v>
+        <v>0.7500709017912802</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7393721793812503</v>
+        <v>0.707623545532136</v>
       </c>
       <c r="K3" t="n">
         <v>0.7227248847714312</v>
@@ -2005,54 +2005,54 @@
         <v>0.6980239502816274</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8734010209954193</v>
+        <v>0.8166700297352208</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="n">
-        <v>590</v>
+        <v>191</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4220648576149107</v>
+        <v>0.7398671652147174</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6573936964469328</v>
+        <v>0.8102198976868396</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5105642142105818</v>
+        <v>0.6801311979814224</v>
       </c>
       <c r="F4" t="n">
-        <v>0.70700088884401</v>
+        <v>0.9459008124467417</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8539411970592613</v>
+        <v>0.6958379245909939</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4382010555278126</v>
+        <v>0.7824140447335772</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5310728619611116</v>
+        <v>0.6327996701550141</v>
       </c>
       <c r="J4" t="n">
-        <v>0.860557842199267</v>
+        <v>0.7055100668271714</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7620858714840306</v>
+        <v>0.7053781568060278</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7397052478256447</v>
+        <v>0.8738756116389224</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6910003078081974</v>
+        <v>0.6507603765585297</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6146666364863749</v>
+        <v>0.6701830999225692</v>
       </c>
       <c r="O4" t="n">
-        <v>0.692870810756133</v>
+        <v>0.6946544258746721</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2060,13 +2060,13 @@
         <v>129</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5780301118645911</v>
+        <v>0.7128756221190098</v>
       </c>
       <c r="C5" t="n">
         <v>0.9486773106914687</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5105642142105818</v>
+        <v>0.6801311979814224</v>
       </c>
       <c r="E5" t="n">
         <v>0.9999999999999996</v>
@@ -2075,16 +2075,16 @@
         <v>0.7716148863763835</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6877751376883795</v>
+        <v>0.5833807412578649</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9810563542868925</v>
+        <v>0.914569972419069</v>
       </c>
       <c r="I5" t="n">
-        <v>0.644293995914037</v>
+        <v>0.6871638484149084</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6338731380465497</v>
+        <v>0.57708735591649</v>
       </c>
       <c r="K5" t="n">
         <v>0.6120731507103283</v>
@@ -2099,7 +2099,7 @@
         <v>0.6103021704371677</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7367581125707765</v>
+        <v>0.7269307686496642</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2107,13 +2107,13 @@
         <v>92</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5744865955456355</v>
+        <v>0.7695569925453506</v>
       </c>
       <c r="C6" t="n">
         <v>0.9047616591403688</v>
       </c>
       <c r="D6" t="n">
-        <v>0.70700088884401</v>
+        <v>0.9459008124467417</v>
       </c>
       <c r="E6" t="n">
         <v>0.7716148863763835</v>
@@ -2122,16 +2122,16 @@
         <v>0.9999999999999994</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7320176099541926</v>
+        <v>0.7480228797962392</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7047234649796449</v>
+        <v>0.7844061452111848</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6535292329335788</v>
+        <v>0.7082111984193568</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6839855496386522</v>
+        <v>0.7614536547402878</v>
       </c>
       <c r="K6" t="n">
         <v>0.7705738575443331</v>
@@ -2146,195 +2146,195 @@
         <v>0.7354415621775825</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9912098196051087</v>
+        <v>0.8288259286541458</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="n">
-        <v>572</v>
+        <v>632</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5125911847922007</v>
+        <v>0.7656418414456131</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7933118503294516</v>
+        <v>0.694151730842631</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8539411970592613</v>
+        <v>0.6958379245909939</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6877751376883795</v>
+        <v>0.5833807412578649</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7320176099541926</v>
+        <v>0.7480228797962392</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6251096818118222</v>
+        <v>0.5580606585684602</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5957789552514658</v>
+        <v>0.3737402830706514</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9921569624168015</v>
+        <v>0.9600355602006528</v>
       </c>
       <c r="K7" t="n">
-        <v>0.68002856893812</v>
+        <v>0.9965377751103145</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7628783967648233</v>
+        <v>0.7666974507945457</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7044046949829926</v>
+        <v>0.4352446380264839</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5730660287601858</v>
+        <v>0.9615105736645229</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7059612902535168</v>
+        <v>0.5852623251256309</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="n">
-        <v>205</v>
+        <v>392</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5711559111886501</v>
+        <v>0.7365271854039732</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9006319408714086</v>
+        <v>0.9177643316472515</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4382010555278126</v>
+        <v>0.7824140447335772</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9810563542868925</v>
+        <v>0.914569972419069</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7047234649796449</v>
+        <v>0.7844061452111848</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6251096818118222</v>
+        <v>0.5580606585684602</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6238647274950672</v>
+        <v>0.7078532728045797</v>
       </c>
       <c r="J8" t="n">
-        <v>0.57447378482542</v>
+        <v>0.5629868099031043</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5327229903991477</v>
+        <v>0.5760049536394769</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6502394461523601</v>
+        <v>0.683240269885127</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6660962077284839</v>
+        <v>0.7124390361423941</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5393182789890826</v>
+        <v>0.5579572129564562</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6819730265690341</v>
+        <v>0.6723066309882835</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="n">
-        <v>408</v>
+        <v>350</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9742014707271981</v>
+        <v>0.7012463036818981</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6969960692620772</v>
+        <v>0.7500709017912802</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5310728619611116</v>
+        <v>0.6327996701550141</v>
       </c>
       <c r="E9" t="n">
-        <v>0.644293995914037</v>
+        <v>0.6871638484149084</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6535292329335788</v>
+        <v>0.7082111984193568</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5957789552514658</v>
+        <v>0.3737402830706514</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6238647274950672</v>
+        <v>0.7078532728045797</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5657678039630406</v>
+        <v>0.4814399224464789</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3209741899893121</v>
+        <v>0.3826094933232158</v>
       </c>
       <c r="L9" t="n">
-        <v>0.63375460852224</v>
+        <v>0.6949814241031506</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9320209176568081</v>
+        <v>0.9794768102918541</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2272809548402962</v>
+        <v>0.278602668604426</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6363785908729733</v>
+        <v>0.8006069481512419</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="n">
-        <v>614</v>
+        <v>631</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4857458082540552</v>
+        <v>0.7073039279239396</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7393721793812503</v>
+        <v>0.707623545532136</v>
       </c>
       <c r="D10" t="n">
-        <v>0.860557842199267</v>
+        <v>0.7055100668271714</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6338731380465497</v>
+        <v>0.57708735591649</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6839855496386522</v>
+        <v>0.7614536547402878</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9921569624168015</v>
+        <v>0.9600355602006528</v>
       </c>
       <c r="H10" t="n">
-        <v>0.57447378482542</v>
+        <v>0.5629868099031043</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5657678039630406</v>
+        <v>0.4814399224464789</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6556138852726414</v>
+        <v>0.9522698966638407</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7109225598094486</v>
+        <v>0.7860125171988088</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6687816285959052</v>
+        <v>0.5539494960540101</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5356824958634626</v>
+        <v>0.8621114043397394</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6642908857194244</v>
+        <v>0.6713980617679645</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -2342,13 +2342,13 @@
         <v>587</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2545079056763221</v>
+        <v>0.7714127471515542</v>
       </c>
       <c r="C11" t="n">
         <v>0.7227248847714312</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7620858714840306</v>
+        <v>0.7053781568060278</v>
       </c>
       <c r="E11" t="n">
         <v>0.6120731507103283</v>
@@ -2357,16 +2357,16 @@
         <v>0.7705738575443331</v>
       </c>
       <c r="G11" t="n">
-        <v>0.68002856893812</v>
+        <v>0.9965377751103145</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5327229903991477</v>
+        <v>0.5760049536394769</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3209741899893121</v>
+        <v>0.3826094933232158</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6556138852726414</v>
+        <v>0.9522698966638407</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
@@ -2381,7 +2381,7 @@
         <v>0.9742268495403436</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7532505571181759</v>
+        <v>0.6070721317401832</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -2389,13 +2389,13 @@
         <v>246</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5481352416429778</v>
+        <v>0.7540698289258477</v>
       </c>
       <c r="C12" t="n">
         <v>0.8725443696087293</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7397052478256447</v>
+        <v>0.8738756116389224</v>
       </c>
       <c r="E12" t="n">
         <v>0.7380782479550602</v>
@@ -2404,16 +2404,16 @@
         <v>0.9709244261744502</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7628783967648233</v>
+        <v>0.7666974507945457</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6502394461523601</v>
+        <v>0.683240269885127</v>
       </c>
       <c r="I12" t="n">
-        <v>0.63375460852224</v>
+        <v>0.6949814241031506</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7109225598094486</v>
+        <v>0.7860125171988088</v>
       </c>
       <c r="K12" t="n">
         <v>0.791590228420595</v>
@@ -2428,7 +2428,7 @@
         <v>0.7531873427607794</v>
       </c>
       <c r="O12" t="n">
-        <v>0.9443497308428636</v>
+        <v>0.8316071922645024</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -2436,13 +2436,13 @@
         <v>302</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8354493746557471</v>
+        <v>0.6628297740505298</v>
       </c>
       <c r="C13" t="n">
         <v>0.7856484331585899</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6910003078081974</v>
+        <v>0.6507603765585297</v>
       </c>
       <c r="E13" t="n">
         <v>0.7112486030770224</v>
@@ -2451,16 +2451,16 @@
         <v>0.7476866362087727</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7044046949829926</v>
+        <v>0.4352446380264839</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6660962077284839</v>
+        <v>0.7124390361423941</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9320209176568081</v>
+        <v>0.9794768102918541</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6687816285959052</v>
+        <v>0.5539494960540101</v>
       </c>
       <c r="K13" t="n">
         <v>0.4460206568975767</v>
@@ -2475,7 +2475,7 @@
         <v>0.3323964340116802</v>
       </c>
       <c r="O13" t="n">
-        <v>0.7151769589800203</v>
+        <v>0.8826147326964343</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -2483,13 +2483,13 @@
         <v>551</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1799221315343051</v>
+        <v>0.7662491821543597</v>
       </c>
       <c r="C14" t="n">
         <v>0.6980239502816274</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6146666364863749</v>
+        <v>0.6701830999225692</v>
       </c>
       <c r="E14" t="n">
         <v>0.6103021704371677</v>
@@ -2498,16 +2498,16 @@
         <v>0.7354415621775825</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5730660287601858</v>
+        <v>0.9615105736645229</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5393182789890826</v>
+        <v>0.5579572129564562</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2272809548402962</v>
+        <v>0.278602668604426</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5356824958634626</v>
+        <v>0.8621114043397394</v>
       </c>
       <c r="K14" t="n">
         <v>0.9742268495403436</v>
@@ -2522,54 +2522,54 @@
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.7172963562658029</v>
+        <v>0.5207694411529337</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="n">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5663556525929653</v>
+        <v>0.6145563809349143</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8734010209954193</v>
+        <v>0.8166700297352208</v>
       </c>
       <c r="D15" t="n">
-        <v>0.692870810756133</v>
+        <v>0.6946544258746721</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7367581125707765</v>
+        <v>0.7269307686496642</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9912098196051087</v>
+        <v>0.8288259286541458</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7059612902535168</v>
+        <v>0.5852623251256309</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6819730265690341</v>
+        <v>0.6723066309882835</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6363785908729733</v>
+        <v>0.8006069481512419</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6642908857194244</v>
+        <v>0.6713980617679645</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7532505571181759</v>
+        <v>0.6070721317401832</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9443497308428636</v>
+        <v>0.8316071922645024</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7151769589800203</v>
+        <v>0.8826147326964343</v>
       </c>
       <c r="N15" t="n">
-        <v>0.7172963562658029</v>
+        <v>0.5207694411529337</v>
       </c>
       <c r="O15" t="n">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999994</v>
       </c>
     </row>
   </sheetData>
@@ -2599,25 +2599,25 @@
         <v>258</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>553</v>
+        <v>191</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="F1" s="1" t="n">
         <v>92</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>572</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>119</v>
+        <v>392</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>408</v>
+        <v>350</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>614</v>
+        <v>631</v>
       </c>
       <c r="K1" s="1" t="n">
         <v>587</v>
@@ -2626,7 +2626,7 @@
         <v>246</v>
       </c>
       <c r="M1" s="1" t="n">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="N1" s="1" t="n">
         <v>551</v>
@@ -2643,25 +2643,25 @@
         <v>0.6183332845201206</v>
       </c>
       <c r="D2" t="n">
-        <v>0.529199275724868</v>
+        <v>0.5468487069821842</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5817440279077574</v>
+        <v>0.5780301118645911</v>
       </c>
       <c r="F2" t="n">
         <v>0.5744865955456355</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5125911847922007</v>
+        <v>0.4787659185966061</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5663556525929653</v>
+        <v>0.6387445670511854</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9742014707271981</v>
+        <v>0.9246116314327368</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4857458082540552</v>
+        <v>0.3237312273262264</v>
       </c>
       <c r="K2" t="n">
         <v>0.2545079056763221</v>
@@ -2670,7 +2670,7 @@
         <v>0.5481352416429778</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9246116314327368</v>
+        <v>0.8354493746557471</v>
       </c>
       <c r="N2" t="n">
         <v>0.1799221315343051</v>
@@ -2687,25 +2687,25 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="D3" t="n">
-        <v>0.765675684141032</v>
+        <v>0.8102198976868396</v>
       </c>
       <c r="E3" t="n">
-        <v>0.967357882329129</v>
+        <v>0.9486773106914687</v>
       </c>
       <c r="F3" t="n">
         <v>0.9047616591403688</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7933118503294516</v>
+        <v>0.8098813005080697</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8734010209954193</v>
+        <v>0.9177643316472515</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6969960692620772</v>
+        <v>0.7500709017912802</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7393721793812503</v>
+        <v>0.707623545532136</v>
       </c>
       <c r="K3" t="n">
         <v>0.7227248847714312</v>
@@ -2714,7 +2714,7 @@
         <v>0.8725443696087293</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7500709017912802</v>
+        <v>0.7856484331585899</v>
       </c>
       <c r="N3" t="n">
         <v>0.6980239502816274</v>
@@ -2722,90 +2722,90 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="n">
-        <v>553</v>
+        <v>191</v>
       </c>
       <c r="B4" t="n">
-        <v>0.529199275724868</v>
+        <v>0.5468487069821842</v>
       </c>
       <c r="C4" t="n">
-        <v>0.765675684141032</v>
+        <v>0.8102198976868396</v>
       </c>
       <c r="D4" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="E4" t="n">
-        <v>0.661667046427781</v>
+        <v>0.6801311979814224</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8269161156330752</v>
+        <v>0.9459008124467417</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8743729010712781</v>
+        <v>0.6635923785213421</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8047239675829915</v>
+        <v>0.7824140447335772</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6272538917391809</v>
+        <v>0.6327996701550141</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8581005397351418</v>
+        <v>0.7055100668271714</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8280952172250585</v>
+        <v>0.7053781568060278</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8652918441679007</v>
+        <v>0.8738756116389224</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6973960477879216</v>
+        <v>0.6507603765585297</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7112329188449072</v>
+        <v>0.6701830999225692</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="n">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5817440279077574</v>
+        <v>0.5780301118645911</v>
       </c>
       <c r="C5" t="n">
-        <v>0.967357882329129</v>
+        <v>0.9486773106914687</v>
       </c>
       <c r="D5" t="n">
-        <v>0.661667046427781</v>
+        <v>0.6801311979814224</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8163764213700065</v>
+        <v>0.7716148863763835</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7204612945793907</v>
+        <v>0.7446442020890892</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7743471129432115</v>
+        <v>0.914569972419069</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6561898276768264</v>
+        <v>0.6871638484149084</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6643562275822428</v>
+        <v>0.57708735591649</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6594544423124015</v>
+        <v>0.6120731507103283</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7972459851475012</v>
+        <v>0.7380782479550602</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7065393312461886</v>
+        <v>0.7112486030770224</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6514550862567244</v>
+        <v>0.6103021704371677</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2819,25 +2819,25 @@
         <v>0.9047616591403688</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8269161156330752</v>
+        <v>0.9459008124467417</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8163764213700065</v>
+        <v>0.7716148863763835</v>
       </c>
       <c r="F6" t="n">
         <v>0.9999999999999994</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7320176099541927</v>
+        <v>0.8018206291094664</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9912098196051087</v>
+        <v>0.7844061452111848</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6535292329335788</v>
+        <v>0.7082111984193568</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6839855496386522</v>
+        <v>0.7614536547402878</v>
       </c>
       <c r="K6" t="n">
         <v>0.7705738575443331</v>
@@ -2846,7 +2846,7 @@
         <v>0.9709244261744502</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7082111984193568</v>
+        <v>0.7476866362087727</v>
       </c>
       <c r="N6" t="n">
         <v>0.7354415621775825</v>
@@ -2854,178 +2854,178 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="n">
-        <v>572</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5125911847922007</v>
+        <v>0.4787659185966061</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7933118503294516</v>
+        <v>0.8098813005080697</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8743729010712781</v>
+        <v>0.6635923785213421</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7204612945793907</v>
+        <v>0.7446442020890892</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7320176099541927</v>
+        <v>0.8018206291094664</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7059612902535168</v>
+        <v>0.6640864747509793</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5957789552514658</v>
+        <v>0.699649587086442</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9921569624168015</v>
+        <v>0.7028504829367506</v>
       </c>
       <c r="K7" t="n">
-        <v>0.68002856893812</v>
+        <v>0.6586241230394202</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7628783967648233</v>
+        <v>0.8003017121427343</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6553066980453612</v>
+        <v>0.7950114164819653</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5730660287601858</v>
+        <v>0.584530907268017</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="n">
-        <v>119</v>
+        <v>392</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5663556525929653</v>
+        <v>0.6387445670511854</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8734010209954193</v>
+        <v>0.9177643316472515</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8047239675829915</v>
+        <v>0.7824140447335772</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7743471129432115</v>
+        <v>0.914569972419069</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9912098196051087</v>
+        <v>0.7844061452111848</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7059612902535168</v>
+        <v>0.6640864747509793</v>
       </c>
       <c r="H8" t="n">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6363785908729733</v>
+        <v>0.7078532728045797</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6642908857194246</v>
+        <v>0.5629868099031043</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7532505571181759</v>
+        <v>0.576004953639477</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9443497308428634</v>
+        <v>0.683240269885127</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6834098910005278</v>
+        <v>0.7124390361423941</v>
       </c>
       <c r="N8" t="n">
-        <v>0.7172963562658029</v>
+        <v>0.5579572129564562</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="n">
-        <v>408</v>
+        <v>350</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9742014707271981</v>
+        <v>0.9246116314327368</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6969960692620772</v>
+        <v>0.7500709017912802</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6272538917391809</v>
+        <v>0.6327996701550141</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6561898276768264</v>
+        <v>0.6871638484149084</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6535292329335788</v>
+        <v>0.7082111984193568</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5957789552514658</v>
+        <v>0.699649587086442</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6363785908729733</v>
+        <v>0.7078532728045797</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5657678039630406</v>
+        <v>0.4814399224464789</v>
       </c>
       <c r="K9" t="n">
-        <v>0.320974189989312</v>
+        <v>0.3826094933232158</v>
       </c>
       <c r="L9" t="n">
-        <v>0.63375460852224</v>
+        <v>0.6949814241031506</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9854976155451124</v>
+        <v>0.9794768102918541</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2272809548402962</v>
+        <v>0.278602668604426</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="n">
-        <v>614</v>
+        <v>631</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4857458082540552</v>
+        <v>0.3237312273262264</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7393721793812503</v>
+        <v>0.707623545532136</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8581005397351418</v>
+        <v>0.7055100668271714</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6643562275822428</v>
+        <v>0.57708735591649</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6839855496386522</v>
+        <v>0.7614536547402878</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9921569624168015</v>
+        <v>0.7028504829367506</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6642908857194246</v>
+        <v>0.5629868099031043</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5657678039630406</v>
+        <v>0.4814399224464789</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6556138852726414</v>
+        <v>0.9522698966638407</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7109225598094486</v>
+        <v>0.7860125171988088</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6219935917265401</v>
+        <v>0.5539494960540101</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5356824958634626</v>
+        <v>0.8621114043397394</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -3039,25 +3039,25 @@
         <v>0.7227248847714312</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8280952172250585</v>
+        <v>0.7053781568060278</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6594544423124015</v>
+        <v>0.6120731507103283</v>
       </c>
       <c r="F11" t="n">
         <v>0.7705738575443331</v>
       </c>
       <c r="G11" t="n">
-        <v>0.68002856893812</v>
+        <v>0.6586241230394202</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7532505571181759</v>
+        <v>0.576004953639477</v>
       </c>
       <c r="I11" t="n">
-        <v>0.320974189989312</v>
+        <v>0.3826094933232158</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6556138852726414</v>
+        <v>0.9522698966638407</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
@@ -3066,7 +3066,7 @@
         <v>0.791590228420595</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3826094933232158</v>
+        <v>0.4460206568975767</v>
       </c>
       <c r="N11" t="n">
         <v>0.9742268495403436</v>
@@ -3083,25 +3083,25 @@
         <v>0.8725443696087293</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8652918441679007</v>
+        <v>0.8738756116389224</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7972459851475012</v>
+        <v>0.7380782479550602</v>
       </c>
       <c r="F12" t="n">
         <v>0.9709244261744502</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7628783967648233</v>
+        <v>0.8003017121427343</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9443497308428634</v>
+        <v>0.683240269885127</v>
       </c>
       <c r="I12" t="n">
-        <v>0.63375460852224</v>
+        <v>0.6949814241031506</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7109225598094486</v>
+        <v>0.7860125171988088</v>
       </c>
       <c r="K12" t="n">
         <v>0.791590228420595</v>
@@ -3110,7 +3110,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6949814241031506</v>
+        <v>0.7414938054813899</v>
       </c>
       <c r="N12" t="n">
         <v>0.7531873427607794</v>
@@ -3118,46 +3118,46 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="n">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9246116314327368</v>
+        <v>0.8354493746557471</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7500709017912802</v>
+        <v>0.7856484331585899</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6973960477879216</v>
+        <v>0.6507603765585297</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7065393312461886</v>
+        <v>0.7112486030770224</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7082111984193568</v>
+        <v>0.7476866362087727</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6553066980453612</v>
+        <v>0.7950114164819653</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6834098910005278</v>
+        <v>0.7124390361423941</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9854976155451124</v>
+        <v>0.9794768102918541</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6219935917265401</v>
+        <v>0.5539494960540101</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3826094933232158</v>
+        <v>0.4460206568975767</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6949814241031506</v>
+        <v>0.7414938054813899</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.278602668604426</v>
+        <v>0.3323964340116802</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -3171,25 +3171,25 @@
         <v>0.6980239502816274</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7112329188449072</v>
+        <v>0.6701830999225692</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6514550862567244</v>
+        <v>0.6103021704371677</v>
       </c>
       <c r="F14" t="n">
         <v>0.7354415621775825</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5730660287601858</v>
+        <v>0.584530907268017</v>
       </c>
       <c r="H14" t="n">
-        <v>0.7172963562658029</v>
+        <v>0.5579572129564562</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2272809548402962</v>
+        <v>0.278602668604426</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5356824958634626</v>
+        <v>0.8621114043397394</v>
       </c>
       <c r="K14" t="n">
         <v>0.9742268495403436</v>
@@ -3198,7 +3198,7 @@
         <v>0.7531873427607794</v>
       </c>
       <c r="M14" t="n">
-        <v>0.278602668604426</v>
+        <v>0.3323964340116802</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
@@ -3231,7 +3231,7 @@
         <v>258</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>591</v>
+        <v>191</v>
       </c>
       <c r="E1" s="1" t="n">
         <v>100</v>
@@ -3240,16 +3240,16 @@
         <v>92</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>572</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>119</v>
+        <v>551</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>476</v>
+        <v>350</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>614</v>
+        <v>631</v>
       </c>
       <c r="K1" s="1" t="n">
         <v>587</v>
@@ -3258,7 +3258,7 @@
         <v>246</v>
       </c>
       <c r="M1" s="1" t="n">
-        <v>551</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3272,7 +3272,7 @@
         <v>0.6183332845201206</v>
       </c>
       <c r="D2" t="n">
-        <v>0.509369345098789</v>
+        <v>0.5468487069821844</v>
       </c>
       <c r="E2" t="n">
         <v>0.5817440279077574</v>
@@ -3281,16 +3281,16 @@
         <v>0.5744865955456355</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5125911847922007</v>
+        <v>0.5398247422338056</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5663556525929653</v>
+        <v>0.1799221315343051</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9950523532185318</v>
+        <v>0.9246116314327368</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4857458082540552</v>
+        <v>0.3237312273262264</v>
       </c>
       <c r="K2" t="n">
         <v>0.2545079056763221</v>
@@ -3299,7 +3299,7 @@
         <v>0.5481352416429778</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1799221315343051</v>
+        <v>0.8354493746557471</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3313,7 +3313,7 @@
         <v>0.9999999999999994</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7263154806035624</v>
+        <v>0.8102198976868398</v>
       </c>
       <c r="E3" t="n">
         <v>0.9673578823291291</v>
@@ -3322,16 +3322,16 @@
         <v>0.9047616591403688</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7933118503294516</v>
+        <v>0.9064176243315242</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8734010209954193</v>
+        <v>0.6980239502816274</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6445446769727949</v>
+        <v>0.7500709017912802</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7393721793812503</v>
+        <v>0.707623545532136</v>
       </c>
       <c r="K3" t="n">
         <v>0.7227248847714312</v>
@@ -3340,48 +3340,48 @@
         <v>0.8725443696087293</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6980239502816274</v>
+        <v>0.7856484331585899</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="n">
-        <v>591</v>
+        <v>191</v>
       </c>
       <c r="B4" t="n">
-        <v>0.509369345098789</v>
+        <v>0.5468487069821844</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7263154806035624</v>
+        <v>0.8102198976868398</v>
       </c>
       <c r="D4" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6219137923278606</v>
+        <v>0.7048509412613596</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7951441258629832</v>
+        <v>0.9459008124467415</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8652830086764598</v>
+        <v>0.7460934902261486</v>
       </c>
       <c r="H4" t="n">
-        <v>0.780141209776181</v>
+        <v>0.6701830999225692</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5437116915942122</v>
+        <v>0.6327996701550141</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8595886852122755</v>
+        <v>0.7055100668271714</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8215211996328657</v>
+        <v>0.7053781568060278</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8312157177616284</v>
+        <v>0.8738756116389224</v>
       </c>
       <c r="M4" t="n">
-        <v>0.694372991302265</v>
+        <v>0.6507603765585297</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3395,7 +3395,7 @@
         <v>0.9673578823291291</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6219137923278606</v>
+        <v>0.7048509412613596</v>
       </c>
       <c r="E5" t="n">
         <v>0.9999999999999999</v>
@@ -3404,16 +3404,16 @@
         <v>0.8163764213700065</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7204612945793907</v>
+        <v>0.8980639933683697</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7743471129432115</v>
+        <v>0.6514550862567244</v>
       </c>
       <c r="I5" t="n">
-        <v>0.606103779201957</v>
+        <v>0.7065393312461886</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6643562275822428</v>
+        <v>0.6262820259422214</v>
       </c>
       <c r="K5" t="n">
         <v>0.6594544423124015</v>
@@ -3422,7 +3422,7 @@
         <v>0.7972459851475012</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6514550862567244</v>
+        <v>0.7385336878561243</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3436,7 +3436,7 @@
         <v>0.9047616591403688</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7951441258629832</v>
+        <v>0.9459008124467415</v>
       </c>
       <c r="E6" t="n">
         <v>0.8163764213700065</v>
@@ -3445,16 +3445,16 @@
         <v>0.9999999999999994</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7320176099541926</v>
+        <v>0.8918883934129012</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9912098196051083</v>
+        <v>0.7354415621775826</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6007017383394112</v>
+        <v>0.7082111984193565</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6839855496386522</v>
+        <v>0.7614536547402878</v>
       </c>
       <c r="K6" t="n">
         <v>0.7705738575443331</v>
@@ -3463,171 +3463,171 @@
         <v>0.9709244261744502</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7354415621775825</v>
+        <v>0.7476866362087727</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="n">
-        <v>572</v>
+        <v>67</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5125911847922007</v>
+        <v>0.5398247422338056</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7933118503294516</v>
+        <v>0.9064176243315242</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8652830086764598</v>
+        <v>0.7460934902261486</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7204612945793907</v>
+        <v>0.8980639933683697</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7320176099541926</v>
+        <v>0.8918883934129012</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7059612902535171</v>
+        <v>0.676464357796852</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5405868733266513</v>
+        <v>0.7256552515896509</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9921569624168015</v>
+        <v>0.7135125295262021</v>
       </c>
       <c r="K7" t="n">
-        <v>0.68002856893812</v>
+        <v>0.7182028427421658</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7628783967648233</v>
+        <v>0.8934044580774776</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5730660287601858</v>
+        <v>0.794109463398042</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="n">
-        <v>119</v>
+        <v>551</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5663556525929653</v>
+        <v>0.1799221315343051</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8734010209954193</v>
+        <v>0.6980239502816274</v>
       </c>
       <c r="D8" t="n">
-        <v>0.780141209776181</v>
+        <v>0.6701830999225692</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7743471129432115</v>
+        <v>0.6514550862567244</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9912098196051083</v>
+        <v>0.7354415621775826</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7059612902535171</v>
+        <v>0.676464357796852</v>
       </c>
       <c r="H8" t="n">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5900933865494604</v>
+        <v>0.278602668604426</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6642908857194244</v>
+        <v>0.8621114043397394</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7532505571181759</v>
+        <v>0.9742268495403436</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9443497308428634</v>
+        <v>0.7531873427607793</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7172963562658029</v>
+        <v>0.3323964340116801</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="n">
-        <v>476</v>
+        <v>350</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9950523532185318</v>
+        <v>0.9246116314327368</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6445446769727949</v>
+        <v>0.7500709017912802</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5437116915942122</v>
+        <v>0.6327996701550141</v>
       </c>
       <c r="E9" t="n">
-        <v>0.606103779201957</v>
+        <v>0.7065393312461886</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6007017383394112</v>
+        <v>0.7082111984193565</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5405868733266513</v>
+        <v>0.7256552515896509</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5900933865494604</v>
+        <v>0.278602668604426</v>
       </c>
       <c r="I9" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5135682732368021</v>
+        <v>0.4814399224464789</v>
       </c>
       <c r="K9" t="n">
-        <v>0.271843819293294</v>
+        <v>0.3826094933232158</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5757163400309226</v>
+        <v>0.6949814241031506</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1882019224883528</v>
+        <v>0.9794768102918541</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="n">
-        <v>614</v>
+        <v>631</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4857458082540552</v>
+        <v>0.3237312273262264</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7393721793812503</v>
+        <v>0.707623545532136</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8595886852122755</v>
+        <v>0.7055100668271714</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6643562275822428</v>
+        <v>0.6262820259422214</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6839855496386522</v>
+        <v>0.7614536547402878</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9921569624168015</v>
+        <v>0.7135125295262021</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6642908857194244</v>
+        <v>0.8621114043397394</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5135682732368021</v>
+        <v>0.4814399224464789</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6556138852726414</v>
+        <v>0.9522698966638407</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7109225598094489</v>
+        <v>0.7860125171988089</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5356824958634626</v>
+        <v>0.55394949605401</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3641,7 +3641,7 @@
         <v>0.7227248847714312</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8215211996328657</v>
+        <v>0.7053781568060278</v>
       </c>
       <c r="E11" t="n">
         <v>0.6594544423124015</v>
@@ -3650,16 +3650,16 @@
         <v>0.7705738575443331</v>
       </c>
       <c r="G11" t="n">
-        <v>0.68002856893812</v>
+        <v>0.7182028427421658</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7532505571181759</v>
+        <v>0.9742268495403436</v>
       </c>
       <c r="I11" t="n">
-        <v>0.271843819293294</v>
+        <v>0.3826094933232158</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6556138852726414</v>
+        <v>0.9522698966638407</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
@@ -3668,7 +3668,7 @@
         <v>0.791590228420595</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9742268495403437</v>
+        <v>0.4460206568975767</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -3682,7 +3682,7 @@
         <v>0.8725443696087293</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8312157177616284</v>
+        <v>0.8738756116389224</v>
       </c>
       <c r="E12" t="n">
         <v>0.7972459851475012</v>
@@ -3691,16 +3691,16 @@
         <v>0.9709244261744502</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7628783967648233</v>
+        <v>0.8934044580774776</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9443497308428634</v>
+        <v>0.7531873427607793</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5757163400309226</v>
+        <v>0.6949814241031506</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7109225598094489</v>
+        <v>0.7860125171988089</v>
       </c>
       <c r="K12" t="n">
         <v>0.791590228420595</v>
@@ -3709,45 +3709,45 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.7531873427607794</v>
+        <v>0.7414938054813899</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="n">
-        <v>551</v>
+        <v>302</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1799221315343051</v>
+        <v>0.8354493746557471</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6980239502816274</v>
+        <v>0.7856484331585899</v>
       </c>
       <c r="D13" t="n">
-        <v>0.694372991302265</v>
+        <v>0.6507603765585297</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6514550862567244</v>
+        <v>0.7385336878561243</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7354415621775825</v>
+        <v>0.7476866362087727</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5730660287601858</v>
+        <v>0.794109463398042</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7172963562658029</v>
+        <v>0.3323964340116801</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1882019224883528</v>
+        <v>0.9794768102918541</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5356824958634626</v>
+        <v>0.55394949605401</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9742268495403437</v>
+        <v>0.4460206568975767</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7531873427607794</v>
+        <v>0.7414938054813899</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
@@ -3780,7 +3780,7 @@
         <v>258</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>551</v>
+        <v>191</v>
       </c>
       <c r="E1" s="1" t="n">
         <v>100</v>
@@ -3789,10 +3789,10 @@
         <v>92</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>640</v>
+        <v>88</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>119</v>
+        <v>551</v>
       </c>
       <c r="I1" s="1" t="n">
         <v>476</v>
@@ -3818,7 +3818,7 @@
         <v>0.6183332845201206</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1799221315343051</v>
+        <v>0.5468487069821844</v>
       </c>
       <c r="E2" t="n">
         <v>0.5817440279077574</v>
@@ -3827,10 +3827,10 @@
         <v>0.5744865955456355</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6239707248963332</v>
+        <v>0.5716992837901892</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5663556525929653</v>
+        <v>0.1799221315343051</v>
       </c>
       <c r="I2" t="n">
         <v>0.9950523532185318</v>
@@ -3856,7 +3856,7 @@
         <v>0.9999999999999994</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6980239502816274</v>
+        <v>0.8102198976868398</v>
       </c>
       <c r="E3" t="n">
         <v>0.967357882329129</v>
@@ -3865,10 +3865,10 @@
         <v>0.9047616591403688</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7461075814152978</v>
+        <v>0.9486567070020211</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8734010209954193</v>
+        <v>0.6980239502816274</v>
       </c>
       <c r="I3" t="n">
         <v>0.6445446769727949</v>
@@ -3885,40 +3885,40 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="n">
-        <v>551</v>
+        <v>191</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1799221315343051</v>
+        <v>0.5468487069821844</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6980239502816274</v>
+        <v>0.8102198976868398</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6514550862567244</v>
+        <v>0.7048509412613596</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7354415621775825</v>
+        <v>0.9459008124467415</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7312191911295777</v>
+        <v>0.8119455733528776</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7172963562658029</v>
+        <v>0.6701830999225692</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1882019224883528</v>
+        <v>0.5654989797490571</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8621114043397394</v>
+        <v>0.7055100668271714</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9742268495403436</v>
+        <v>0.7053781568060278</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7531873427607793</v>
+        <v>0.8738756116389224</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3932,7 +3932,7 @@
         <v>0.967357882329129</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6514550862567244</v>
+        <v>0.7048509412613596</v>
       </c>
       <c r="E5" t="n">
         <v>0.9999999999999998</v>
@@ -3941,10 +3941,10 @@
         <v>0.8163764213700065</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6504592725939357</v>
+        <v>0.9430714226236125</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7743471129432115</v>
+        <v>0.6514550862567244</v>
       </c>
       <c r="I5" t="n">
         <v>0.606103779201957</v>
@@ -3970,7 +3970,7 @@
         <v>0.9047616591403688</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7354415621775825</v>
+        <v>0.9459008124467415</v>
       </c>
       <c r="E6" t="n">
         <v>0.8163764213700065</v>
@@ -3979,10 +3979,10 @@
         <v>0.9999999999999994</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8223661572241033</v>
+        <v>0.9287705477590343</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9912098196051083</v>
+        <v>0.7354415621775826</v>
       </c>
       <c r="I6" t="n">
         <v>0.6007017383394112</v>
@@ -3999,78 +3999,78 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="n">
-        <v>640</v>
+        <v>88</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6239707248963332</v>
+        <v>0.5716992837901892</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7461075814152978</v>
+        <v>0.9486567070020211</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7312191911295777</v>
+        <v>0.8119455733528776</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6504592725939357</v>
+        <v>0.9430714226236125</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8223661572241033</v>
+        <v>0.9287705477590343</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8173466079175949</v>
+        <v>0.7097620736757342</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6366507499616234</v>
+        <v>0.5991824818204876</v>
       </c>
       <c r="J7" t="n">
-        <v>0.858375147272827</v>
+        <v>0.6917208347478511</v>
       </c>
       <c r="K7" t="n">
-        <v>0.811540994032932</v>
+        <v>0.7267349300290377</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8465594479607742</v>
+        <v>0.9138222824946981</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="n">
-        <v>119</v>
+        <v>551</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5663556525929653</v>
+        <v>0.1799221315343051</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8734010209954193</v>
+        <v>0.6980239502816274</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7172963562658029</v>
+        <v>0.6701830999225692</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7743471129432115</v>
+        <v>0.6514550862567244</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9912098196051083</v>
+        <v>0.7354415621775826</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8173466079175949</v>
+        <v>0.7097620736757342</v>
       </c>
       <c r="H8" t="n">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5900933865494605</v>
+        <v>0.1882019224883528</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7484082597862186</v>
+        <v>0.8621114043397394</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7532505571181759</v>
+        <v>0.9742268495403436</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9443497308428634</v>
+        <v>0.7531873427607793</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -4084,7 +4084,7 @@
         <v>0.6445446769727949</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1882019224883528</v>
+        <v>0.5654989797490571</v>
       </c>
       <c r="E9" t="n">
         <v>0.606103779201957</v>
@@ -4093,10 +4093,10 @@
         <v>0.6007017383394112</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6366507499616234</v>
+        <v>0.5991824818204876</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5900933865494605</v>
+        <v>0.1882019224883528</v>
       </c>
       <c r="I9" t="n">
         <v>1.000000000000001</v>
@@ -4122,7 +4122,7 @@
         <v>0.707623545532136</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8621114043397394</v>
+        <v>0.7055100668271714</v>
       </c>
       <c r="E10" t="n">
         <v>0.6262820259422214</v>
@@ -4131,10 +4131,10 @@
         <v>0.7614536547402878</v>
       </c>
       <c r="G10" t="n">
-        <v>0.858375147272827</v>
+        <v>0.6917208347478511</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7484082597862186</v>
+        <v>0.8621114043397394</v>
       </c>
       <c r="I10" t="n">
         <v>0.3518664314210474</v>
@@ -4160,7 +4160,7 @@
         <v>0.7227248847714312</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9742268495403436</v>
+        <v>0.7053781568060278</v>
       </c>
       <c r="E11" t="n">
         <v>0.6594544423124015</v>
@@ -4169,10 +4169,10 @@
         <v>0.7705738575443331</v>
       </c>
       <c r="G11" t="n">
-        <v>0.811540994032932</v>
+        <v>0.7267349300290377</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7532505571181759</v>
+        <v>0.9742268495403436</v>
       </c>
       <c r="I11" t="n">
         <v>0.271843819293294</v>
@@ -4198,7 +4198,7 @@
         <v>0.8725443696087293</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7531873427607793</v>
+        <v>0.8738756116389224</v>
       </c>
       <c r="E12" t="n">
         <v>0.7972459851475012</v>
@@ -4207,10 +4207,10 @@
         <v>0.9709244261744502</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8465594479607742</v>
+        <v>0.9138222824946981</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9443497308428634</v>
+        <v>0.7531873427607793</v>
       </c>
       <c r="I12" t="n">
         <v>0.5757163400309226</v>
@@ -4252,7 +4252,7 @@
         <v>258</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>551</v>
+        <v>191</v>
       </c>
       <c r="E1" s="1" t="n">
         <v>100</v>
@@ -4261,10 +4261,10 @@
         <v>92</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>246</v>
+        <v>88</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>119</v>
+        <v>551</v>
       </c>
       <c r="I1" s="1" t="n">
         <v>476</v>
@@ -4287,7 +4287,7 @@
         <v>0.6183332845201206</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1799221315343051</v>
+        <v>0.5468487069821842</v>
       </c>
       <c r="E2" t="n">
         <v>0.5817440279077574</v>
@@ -4296,10 +4296,10 @@
         <v>0.5744865955456355</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5481352416429778</v>
+        <v>0.5716992837901892</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5663556525929653</v>
+        <v>0.1799221315343051</v>
       </c>
       <c r="I2" t="n">
         <v>0.9950523532185318</v>
@@ -4322,7 +4322,7 @@
         <v>0.9999999999999994</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6980239502816274</v>
+        <v>0.8102198976868396</v>
       </c>
       <c r="E3" t="n">
         <v>0.967357882329129</v>
@@ -4331,10 +4331,10 @@
         <v>0.9047616591403688</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8725443696087293</v>
+        <v>0.9486567070020211</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8734010209954193</v>
+        <v>0.6980239502816274</v>
       </c>
       <c r="I3" t="n">
         <v>0.6445446769727949</v>
@@ -4348,37 +4348,37 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="n">
-        <v>551</v>
+        <v>191</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1799221315343051</v>
+        <v>0.5468487069821842</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6980239502816274</v>
+        <v>0.8102198976868396</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6514550862567244</v>
+        <v>0.7048509412613596</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7354415621775826</v>
+        <v>0.9459008124467417</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7531873427607794</v>
+        <v>0.8119455733528776</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7172963562658029</v>
+        <v>0.6701830999225692</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1882019224883528</v>
+        <v>0.5654989797490571</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8621114043397394</v>
+        <v>0.7055100668271714</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9742268495403436</v>
+        <v>0.7053781568060278</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4392,7 +4392,7 @@
         <v>0.967357882329129</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6514550862567244</v>
+        <v>0.7048509412613596</v>
       </c>
       <c r="E5" t="n">
         <v>0.9999999999999999</v>
@@ -4401,10 +4401,10 @@
         <v>0.8163764213700065</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7972459851475013</v>
+        <v>0.9430714226236125</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7743471129432115</v>
+        <v>0.6514550862567244</v>
       </c>
       <c r="I5" t="n">
         <v>0.606103779201957</v>
@@ -4427,7 +4427,7 @@
         <v>0.9047616591403688</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7354415621775826</v>
+        <v>0.9459008124467417</v>
       </c>
       <c r="E6" t="n">
         <v>0.8163764213700065</v>
@@ -4436,10 +4436,10 @@
         <v>0.9999999999999994</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9709244261744502</v>
+        <v>0.9287705477590343</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9912098196051087</v>
+        <v>0.7354415621775825</v>
       </c>
       <c r="I6" t="n">
         <v>0.6007017383394112</v>
@@ -4453,72 +4453,72 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="n">
-        <v>246</v>
+        <v>88</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5481352416429778</v>
+        <v>0.5716992837901892</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8725443696087293</v>
+        <v>0.9486567070020211</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7531873427607794</v>
+        <v>0.8119455733528776</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7972459851475013</v>
+        <v>0.9430714226236125</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9709244261744502</v>
+        <v>0.9287705477590343</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9443497308428634</v>
+        <v>0.7097620736757342</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5757163400309226</v>
+        <v>0.5991824818204876</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7860125171988088</v>
+        <v>0.6917208347478511</v>
       </c>
       <c r="K7" t="n">
-        <v>0.791590228420595</v>
+        <v>0.7267349300290377</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="n">
-        <v>119</v>
+        <v>551</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5663556525929653</v>
+        <v>0.1799221315343051</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8734010209954193</v>
+        <v>0.6980239502816274</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7172963562658029</v>
+        <v>0.6701830999225692</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7743471129432115</v>
+        <v>0.6514550862567244</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9912098196051087</v>
+        <v>0.7354415621775825</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9443497308428634</v>
+        <v>0.7097620736757342</v>
       </c>
       <c r="H8" t="n">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5900933865494604</v>
+        <v>0.1882019224883528</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7484082597862186</v>
+        <v>0.8621114043397394</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7532505571181758</v>
+        <v>0.9742268495403437</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -4532,7 +4532,7 @@
         <v>0.6445446769727949</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1882019224883528</v>
+        <v>0.5654989797490571</v>
       </c>
       <c r="E9" t="n">
         <v>0.606103779201957</v>
@@ -4541,10 +4541,10 @@
         <v>0.6007017383394112</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5757163400309226</v>
+        <v>0.5991824818204876</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5900933865494604</v>
+        <v>0.1882019224883528</v>
       </c>
       <c r="I9" t="n">
         <v>1.000000000000001</v>
@@ -4567,7 +4567,7 @@
         <v>0.707623545532136</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8621114043397394</v>
+        <v>0.7055100668271714</v>
       </c>
       <c r="E10" t="n">
         <v>0.6262820259422214</v>
@@ -4576,10 +4576,10 @@
         <v>0.7614536547402878</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7860125171988088</v>
+        <v>0.6917208347478511</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7484082597862186</v>
+        <v>0.8621114043397394</v>
       </c>
       <c r="I10" t="n">
         <v>0.3518664314210474</v>
@@ -4602,7 +4602,7 @@
         <v>0.7227248847714312</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9742268495403436</v>
+        <v>0.7053781568060278</v>
       </c>
       <c r="E11" t="n">
         <v>0.6594544423124015</v>
@@ -4611,10 +4611,10 @@
         <v>0.7705738575443331</v>
       </c>
       <c r="G11" t="n">
-        <v>0.791590228420595</v>
+        <v>0.7267349300290377</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7532505571181758</v>
+        <v>0.9742268495403437</v>
       </c>
       <c r="I11" t="n">
         <v>0.271843819293294</v>
@@ -4647,13 +4647,13 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" s="1" t="n">
-        <v>637</v>
+        <v>477</v>
       </c>
       <c r="C1" s="1" t="n">
         <v>258</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>551</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="n">
         <v>100</v>
@@ -4665,45 +4665,45 @@
         <v>246</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>119</v>
+        <v>551</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
-        <v>637</v>
+        <v>477</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6866994970269421</v>
+        <v>0.6183332845201206</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6743298363523579</v>
+        <v>0.5663556525929653</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5828760674973157</v>
+        <v>0.5817440279077574</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7622867115786832</v>
+        <v>0.5744865955456355</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7970696455154805</v>
+        <v>0.5481352416429778</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7534860089350741</v>
+        <v>0.1799221315343051</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6003164019085208</v>
+        <v>0.9950523532185318</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8085211886348875</v>
+        <v>0.1703372983702408</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4711,13 +4711,13 @@
         <v>258</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6866994970269421</v>
+        <v>0.6183332845201206</v>
       </c>
       <c r="C3" t="n">
         <v>0.9999999999999996</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6980239502816274</v>
+        <v>0.8734010209954193</v>
       </c>
       <c r="E3" t="n">
         <v>0.967357882329129</v>
@@ -4729,45 +4729,45 @@
         <v>0.8725443696087293</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8734010209954193</v>
+        <v>0.6980239502816274</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6926716452410528</v>
+        <v>0.6445446769727949</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7227248847714312</v>
+        <v>0.6680433089123927</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
-        <v>551</v>
+        <v>119</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6743298363523579</v>
+        <v>0.5663556525929653</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6980239502816274</v>
+        <v>0.8734010209954193</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6514550862567244</v>
+        <v>0.7743471129432113</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7354415621775826</v>
+        <v>0.9912098196051083</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7531873427607793</v>
+        <v>0.9443497308428634</v>
       </c>
       <c r="H4" t="n">
         <v>0.7172963562658029</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2063377038723416</v>
+        <v>0.5900933865494605</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9742268495403436</v>
+        <v>0.6983815660532858</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4775,13 +4775,13 @@
         <v>100</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5828760674973157</v>
+        <v>0.5817440279077574</v>
       </c>
       <c r="C5" t="n">
         <v>0.967357882329129</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6514550862567244</v>
+        <v>0.7743471129432113</v>
       </c>
       <c r="E5" t="n">
         <v>0.9999999999999999</v>
@@ -4793,13 +4793,13 @@
         <v>0.7972459851475012</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7743471129432115</v>
+        <v>0.6514550862567244</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6515204928842184</v>
+        <v>0.606103779201957</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6594544423124015</v>
+        <v>0.6194584251282086</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4807,13 +4807,13 @@
         <v>92</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7622867115786832</v>
+        <v>0.5744865955456355</v>
       </c>
       <c r="C6" t="n">
         <v>0.9047616591403688</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7354415621775826</v>
+        <v>0.9912098196051083</v>
       </c>
       <c r="E6" t="n">
         <v>0.8163764213700065</v>
@@ -4825,13 +4825,13 @@
         <v>0.9709244261744502</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9912098196051087</v>
+        <v>0.7354415621775825</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6489937711378302</v>
+        <v>0.6007017383394112</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7705738575443331</v>
+        <v>0.7120959713837812</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4839,13 +4839,13 @@
         <v>246</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7970696455154805</v>
+        <v>0.5481352416429778</v>
       </c>
       <c r="C7" t="n">
         <v>0.8725443696087293</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7531873427607793</v>
+        <v>0.9443497308428634</v>
       </c>
       <c r="E7" t="n">
         <v>0.7972459851475012</v>
@@ -4857,109 +4857,109 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9443497308428634</v>
+        <v>0.7531873427607793</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6226465898254474</v>
+        <v>0.5757163400309226</v>
       </c>
       <c r="J7" t="n">
-        <v>0.791590228420595</v>
+        <v>0.7271518383648312</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
-        <v>119</v>
+        <v>551</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7534860089350741</v>
+        <v>0.1799221315343051</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8734010209954193</v>
+        <v>0.6980239502816274</v>
       </c>
       <c r="D8" t="n">
         <v>0.7172963562658029</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7743471129432115</v>
+        <v>0.6514550862567244</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9912098196051087</v>
+        <v>0.7354415621775825</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9443497308428634</v>
+        <v>0.7531873427607793</v>
       </c>
       <c r="H8" t="n">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6346661179648038</v>
+        <v>0.1882019224883528</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7532505571181758</v>
+        <v>0.9957774965620875</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6003164019085208</v>
+        <v>0.9950523532185318</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6926716452410528</v>
+        <v>0.6445446769727949</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2063377038723416</v>
+        <v>0.5900933865494605</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6515204928842184</v>
+        <v>0.606103779201957</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6489937711378302</v>
+        <v>0.6007017383394112</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6226465898254474</v>
+        <v>0.5757163400309226</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6346661179648038</v>
+        <v>0.1882019224883528</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3147669710840272</v>
+        <v>0.1794634483213158</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8085211886348875</v>
+        <v>0.1703372983702408</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7227248847714312</v>
+        <v>0.6680433089123927</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9742268495403436</v>
+        <v>0.6983815660532858</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6594544423124015</v>
+        <v>0.6194584251282086</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7705738575443331</v>
+        <v>0.7120959713837812</v>
       </c>
       <c r="G10" t="n">
-        <v>0.791590228420595</v>
+        <v>0.7271518383648312</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7532505571181758</v>
+        <v>0.9957774965620875</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3147669710840272</v>
+        <v>0.1794634483213158</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -4983,13 +4983,13 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="n">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="C1" s="1" t="n">
         <v>258</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>551</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="n">
         <v>100</v>
@@ -5001,39 +5001,39 @@
         <v>246</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>119</v>
+        <v>352</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6680433089123927</v>
+        <v>0.6183332845201206</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9957774965620875</v>
+        <v>0.5663556525929653</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6194584251282086</v>
+        <v>0.5817440279077574</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7120959713837812</v>
+        <v>0.5744865955456355</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7271518383648312</v>
+        <v>0.5481352416429778</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6983815660532858</v>
+        <v>0.7206169804047633</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2013844247540359</v>
+        <v>0.9950523532185318</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5041,13 +5041,13 @@
         <v>258</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6680433089123927</v>
+        <v>0.6183332845201206</v>
       </c>
       <c r="C3" t="n">
         <v>0.9999999999999994</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6980239502816274</v>
+        <v>0.8734010209954192</v>
       </c>
       <c r="E3" t="n">
         <v>0.9673578823291291</v>
@@ -5059,39 +5059,39 @@
         <v>0.8725443696087293</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8734010209954193</v>
+        <v>0.8764935495710583</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6926716452410528</v>
+        <v>0.6445446769727949</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
-        <v>551</v>
+        <v>119</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9957774965620875</v>
+        <v>0.5663556525929653</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6980239502816274</v>
+        <v>0.8734010209954192</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6514550862567244</v>
+        <v>0.7743471129432113</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7354415621775825</v>
+        <v>0.9912098196051087</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7531873427607793</v>
+        <v>0.9443497308428634</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7172963562658029</v>
+        <v>0.8488525382887692</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2063377038723416</v>
+        <v>0.5900933865494605</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5099,13 +5099,13 @@
         <v>100</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6194584251282086</v>
+        <v>0.5817440279077574</v>
       </c>
       <c r="C5" t="n">
         <v>0.9673578823291291</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6514550862567244</v>
+        <v>0.7743471129432113</v>
       </c>
       <c r="E5" t="n">
         <v>0.9999999999999999</v>
@@ -5117,10 +5117,10 @@
         <v>0.7972459851475012</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7743471129432115</v>
+        <v>0.8265696885782285</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6515204928842184</v>
+        <v>0.606103779201957</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5128,13 +5128,13 @@
         <v>92</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7120959713837812</v>
+        <v>0.5744865955456355</v>
       </c>
       <c r="C6" t="n">
         <v>0.9047616591403688</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7354415621775825</v>
+        <v>0.9912098196051087</v>
       </c>
       <c r="E6" t="n">
         <v>0.8163764213700065</v>
@@ -5146,10 +5146,10 @@
         <v>0.9709244261744502</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9912098196051083</v>
+        <v>0.869902288820355</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6489937711378301</v>
+        <v>0.6007017383394112</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5157,13 +5157,13 @@
         <v>246</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7271518383648312</v>
+        <v>0.5481352416429778</v>
       </c>
       <c r="C7" t="n">
         <v>0.8725443696087293</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7531873427607793</v>
+        <v>0.9443497308428634</v>
       </c>
       <c r="E7" t="n">
         <v>0.7972459851475012</v>
@@ -5175,68 +5175,68 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9443497308428636</v>
+        <v>0.8678061313074397</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6226465898254474</v>
+        <v>0.5757163400309226</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
-        <v>119</v>
+        <v>352</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6983815660532858</v>
+        <v>0.7206169804047633</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8734010209954193</v>
+        <v>0.8764935495710583</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7172963562658029</v>
+        <v>0.8488525382887692</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7743471129432115</v>
+        <v>0.8265696885782285</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9912098196051083</v>
+        <v>0.869902288820355</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9443497308428636</v>
+        <v>0.8678061313074397</v>
       </c>
       <c r="H8" t="n">
-        <v>0.999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6346661179648038</v>
+        <v>0.7254373965237514</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2013844247540359</v>
+        <v>0.9950523532185318</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6926716452410528</v>
+        <v>0.6445446769727949</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2063377038723416</v>
+        <v>0.5900933865494605</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6515204928842184</v>
+        <v>0.606103779201957</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6489937711378301</v>
+        <v>0.6007017383394112</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6226465898254474</v>
+        <v>0.5757163400309226</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6346661179648038</v>
+        <v>0.7254373965237514</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5260,13 +5260,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="n">
-        <v>304</v>
+        <v>493</v>
       </c>
       <c r="C1" s="1" t="n">
         <v>258</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>493</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="n">
         <v>100</v>
@@ -5278,33 +5278,33 @@
         <v>246</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>119</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="n">
-        <v>304</v>
+        <v>493</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.916403121178109</v>
+        <v>0.8864218282551841</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8837053936720871</v>
+        <v>0.8011276096816029</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8638037873778593</v>
+        <v>0.8154338444703207</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9084983437203722</v>
+        <v>0.8501717052676013</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9168111477558454</v>
+        <v>0.8979739403373156</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8779319396681142</v>
+        <v>0.883705393672087</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5312,13 +5312,13 @@
         <v>258</v>
       </c>
       <c r="B3" t="n">
-        <v>0.916403121178109</v>
+        <v>0.8864218282551841</v>
       </c>
       <c r="C3" t="n">
         <v>0.9999999999999994</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8864218282551841</v>
+        <v>0.8734010209954192</v>
       </c>
       <c r="E3" t="n">
         <v>0.967357882329129</v>
@@ -5330,33 +5330,33 @@
         <v>0.8725443696087293</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8734010209954193</v>
+        <v>0.916403121178109</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="n">
-        <v>493</v>
+        <v>119</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8837053936720871</v>
+        <v>0.8011276096816029</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8864218282551841</v>
+        <v>0.8734010209954192</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8154338444703207</v>
+        <v>0.7743471129432115</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8501717052676013</v>
+        <v>0.9912098196051087</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8979739403373156</v>
+        <v>0.9443497308428634</v>
       </c>
       <c r="H4" t="n">
-        <v>0.801127609681603</v>
+        <v>0.8779319396681142</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5364,13 +5364,13 @@
         <v>100</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8638037873778593</v>
+        <v>0.8154338444703207</v>
       </c>
       <c r="C5" t="n">
         <v>0.967357882329129</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8154338444703207</v>
+        <v>0.7743471129432115</v>
       </c>
       <c r="E5" t="n">
         <v>0.9999999999999998</v>
@@ -5382,7 +5382,7 @@
         <v>0.7972459851475012</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7743471129432115</v>
+        <v>0.8638037873778593</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5390,13 +5390,13 @@
         <v>92</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9084983437203722</v>
+        <v>0.8501717052676013</v>
       </c>
       <c r="C6" t="n">
         <v>0.9047616591403688</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8501717052676013</v>
+        <v>0.9912098196051087</v>
       </c>
       <c r="E6" t="n">
         <v>0.8163764213700065</v>
@@ -5408,7 +5408,7 @@
         <v>0.9709244261744502</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9912098196051083</v>
+        <v>0.9084983437203722</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5416,13 +5416,13 @@
         <v>246</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9168111477558454</v>
+        <v>0.8979739403373156</v>
       </c>
       <c r="C7" t="n">
         <v>0.8725443696087293</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8979739403373156</v>
+        <v>0.9443497308428634</v>
       </c>
       <c r="E7" t="n">
         <v>0.7972459851475012</v>
@@ -5434,33 +5434,33 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9443497308428636</v>
+        <v>0.9168111477558456</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="n">
-        <v>119</v>
+        <v>304</v>
       </c>
       <c r="B8" t="n">
+        <v>0.883705393672087</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.916403121178109</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.8779319396681142</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.8734010209954193</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.801127609681603</v>
-      </c>
       <c r="E8" t="n">
-        <v>0.7743471129432115</v>
+        <v>0.8638037873778593</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9912098196051083</v>
+        <v>0.9084983437203722</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9443497308428636</v>
+        <v>0.9168111477558456</v>
       </c>
       <c r="H8" t="n">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
